--- a/Varios/opciones_comercializacion.xlsx
+++ b/Varios/opciones_comercializacion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>terminar ayuda</t>
   </si>
@@ -84,6 +84,18 @@
   </si>
   <si>
     <t>solucionar color dos palabras en generar articulos a partir de</t>
+  </si>
+  <si>
+    <t>error en frmTesoreriaMov con customBindingSource</t>
+  </si>
+  <si>
+    <t>frmPedido</t>
+  </si>
+  <si>
+    <t>frmPedido --&gt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La columna 'DescripcionGEN' está restringida para ser única. Ya está presente el valor 'TODOS'. Fila 29</t>
   </si>
 </sst>
 </file>
@@ -410,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +434,7 @@
     <col min="2" max="2" width="65.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -430,7 +442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -438,7 +450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -446,7 +458,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -454,7 +466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -462,7 +474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -470,7 +482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -478,7 +490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -486,22 +498,41 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>

--- a/Varios/opciones_comercializacion.xlsx
+++ b/Varios/opciones_comercializacion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>terminar ayuda</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t xml:space="preserve"> La columna 'DescripcionGEN' está restringida para ser única. Ya está presente el valor 'TODOS'. Fila 29</t>
+  </si>
+  <si>
+    <t>catch clave duplicada en razon social</t>
   </si>
 </sst>
 </file>
@@ -424,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,6 +525,14 @@
         <v>23</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>

--- a/Varios/opciones_comercializacion.xlsx
+++ b/Varios/opciones_comercializacion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>terminar ayuda</t>
   </si>
@@ -89,16 +89,10 @@
     <t>error en frmTesoreriaMov con customBindingSource</t>
   </si>
   <si>
-    <t>frmPedido</t>
-  </si>
-  <si>
-    <t>frmPedido --&gt;&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La columna 'DescripcionGEN' está restringida para ser única. Ya está presente el valor 'TODOS'. Fila 29</t>
-  </si>
-  <si>
     <t>catch clave duplicada en razon social</t>
+  </si>
+  <si>
+    <t>actualizacion masiva de precios para liquidacion</t>
   </si>
 </sst>
 </file>
@@ -425,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B12"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +431,7 @@
     <col min="2" max="2" width="65.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -445,7 +439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -453,7 +447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -461,7 +455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -469,7 +463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -477,7 +471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -485,7 +479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -493,7 +487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -501,12 +495,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -514,68 +508,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
